--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Pdgfd-Pdgfrb.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Pdgfd-Pdgfrb.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.39269</v>
+        <v>17.05724733333333</v>
       </c>
       <c r="H2">
-        <v>37.17807</v>
+        <v>51.17174199999999</v>
       </c>
       <c r="I2">
-        <v>0.6136856461363306</v>
+        <v>0.6861755591406274</v>
       </c>
       <c r="J2">
-        <v>0.6136856461363306</v>
+        <v>0.6861755591406274</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.188906999999999</v>
+        <v>8.488196666666667</v>
       </c>
       <c r="N2">
-        <v>15.566721</v>
+        <v>25.46459</v>
       </c>
       <c r="O2">
-        <v>0.02571200377994867</v>
+        <v>0.04138402976425696</v>
       </c>
       <c r="P2">
-        <v>0.02571200377994867</v>
+        <v>0.04138402976425696</v>
       </c>
       <c r="Q2">
-        <v>64.30451588983</v>
+        <v>144.7852699573089</v>
       </c>
       <c r="R2">
-        <v>578.7406430084699</v>
+        <v>1303.06742961578</v>
       </c>
       <c r="S2">
-        <v>0.01577908765315757</v>
+        <v>0.02839670976298139</v>
       </c>
       <c r="T2">
-        <v>0.01577908765315757</v>
+        <v>0.02839670976298139</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.39269</v>
+        <v>17.05724733333333</v>
       </c>
       <c r="H3">
-        <v>37.17807</v>
+        <v>51.17174199999999</v>
       </c>
       <c r="I3">
-        <v>0.6136856461363306</v>
+        <v>0.6861755591406274</v>
       </c>
       <c r="J3">
-        <v>0.6136856461363306</v>
+        <v>0.6861755591406274</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>202.900665</v>
       </c>
       <c r="O3">
-        <v>0.3351369029761694</v>
+        <v>0.3297460182766552</v>
       </c>
       <c r="P3">
-        <v>0.3351369029761695</v>
+        <v>0.3297460182766552</v>
       </c>
       <c r="Q3">
-        <v>838.16168071295</v>
+        <v>1153.642275667603</v>
       </c>
       <c r="R3">
-        <v>7543.455126416549</v>
+        <v>10382.78048100843</v>
       </c>
       <c r="S3">
-        <v>0.2056687068470593</v>
+        <v>0.2262636584653794</v>
       </c>
       <c r="T3">
-        <v>0.2056687068470593</v>
+        <v>0.2262636584653794</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.39269</v>
+        <v>17.05724733333333</v>
       </c>
       <c r="H4">
-        <v>37.17807</v>
+        <v>51.17174199999999</v>
       </c>
       <c r="I4">
-        <v>0.6136856461363306</v>
+        <v>0.6861755591406274</v>
       </c>
       <c r="J4">
-        <v>0.6136856461363306</v>
+        <v>0.6861755591406274</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>386.958824</v>
       </c>
       <c r="O4">
-        <v>0.6391510932438819</v>
+        <v>0.6288699519590879</v>
       </c>
       <c r="P4">
-        <v>0.6391510932438819</v>
+        <v>0.6288699519590879</v>
       </c>
       <c r="Q4">
-        <v>1598.486916198853</v>
+        <v>2200.150789594601</v>
       </c>
       <c r="R4">
-        <v>14386.38224578968</v>
+        <v>19801.35710635141</v>
       </c>
       <c r="S4">
-        <v>0.3922378516361137</v>
+        <v>0.4315151909122666</v>
       </c>
       <c r="T4">
-        <v>0.3922378516361137</v>
+        <v>0.4315151909122666</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>10.932878</v>
       </c>
       <c r="I5">
-        <v>0.1804652662055796</v>
+        <v>0.1466018818485066</v>
       </c>
       <c r="J5">
-        <v>0.1804652662055796</v>
+        <v>0.1466018818485066</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.188906999999999</v>
+        <v>8.488196666666667</v>
       </c>
       <c r="N5">
-        <v>15.566721</v>
+        <v>25.46459</v>
       </c>
       <c r="O5">
-        <v>0.02571200377994867</v>
+        <v>0.04138402976425696</v>
       </c>
       <c r="P5">
-        <v>0.02571200377994867</v>
+        <v>0.04138402976425696</v>
       </c>
       <c r="Q5">
-        <v>18.90989572811533</v>
+        <v>30.93347286555778</v>
       </c>
       <c r="R5">
-        <v>170.189061553038</v>
+        <v>278.40125579002</v>
       </c>
       <c r="S5">
-        <v>0.004640123606827306</v>
+        <v>0.006066976641914681</v>
       </c>
       <c r="T5">
-        <v>0.004640123606827307</v>
+        <v>0.006066976641914681</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>10.932878</v>
       </c>
       <c r="I6">
-        <v>0.1804652662055796</v>
+        <v>0.1466018818485066</v>
       </c>
       <c r="J6">
-        <v>0.1804652662055796</v>
+        <v>0.1466018818485066</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>202.900665</v>
       </c>
       <c r="O6">
-        <v>0.3351369029761694</v>
+        <v>0.3297460182766552</v>
       </c>
       <c r="P6">
-        <v>0.3351369029761695</v>
+        <v>0.3297460182766552</v>
       </c>
       <c r="Q6">
         <v>246.4764685070967</v>
@@ -818,10 +818,10 @@
         <v>2218.28821656387</v>
       </c>
       <c r="S6">
-        <v>0.06048057041090792</v>
+        <v>0.04834138681140972</v>
       </c>
       <c r="T6">
-        <v>0.06048057041090794</v>
+        <v>0.04834138681140972</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>10.932878</v>
       </c>
       <c r="I7">
-        <v>0.1804652662055796</v>
+        <v>0.1466018818485066</v>
       </c>
       <c r="J7">
-        <v>0.1804652662055796</v>
+        <v>0.1466018818485066</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>386.958824</v>
       </c>
       <c r="O7">
-        <v>0.6391510932438819</v>
+        <v>0.6288699519590879</v>
       </c>
       <c r="P7">
-        <v>0.6391510932438819</v>
+        <v>0.6288699519590879</v>
       </c>
       <c r="Q7">
         <v>470.0637348683858</v>
@@ -880,10 +880,10 @@
         <v>4230.573613815472</v>
       </c>
       <c r="S7">
-        <v>0.1153445721878444</v>
+        <v>0.09219351839518225</v>
       </c>
       <c r="T7">
-        <v>0.1153445721878444</v>
+        <v>0.09219351839518225</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>12.470671</v>
       </c>
       <c r="I8">
-        <v>0.2058490876580898</v>
+        <v>0.1672225590108659</v>
       </c>
       <c r="J8">
-        <v>0.2058490876580898</v>
+        <v>0.1672225590108659</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.188906999999999</v>
+        <v>8.488196666666667</v>
       </c>
       <c r="N8">
-        <v>15.566721</v>
+        <v>25.46459</v>
       </c>
       <c r="O8">
-        <v>0.02571200377994867</v>
+        <v>0.04138402976425696</v>
       </c>
       <c r="P8">
-        <v>0.02571200377994867</v>
+        <v>0.04138402976425696</v>
       </c>
       <c r="Q8">
-        <v>21.56971734886566</v>
+        <v>35.28450267109889</v>
       </c>
       <c r="R8">
-        <v>194.127456139791</v>
+        <v>317.56052403989</v>
       </c>
       <c r="S8">
-        <v>0.005292792519963791</v>
+        <v>0.006920343359360892</v>
       </c>
       <c r="T8">
-        <v>0.005292792519963792</v>
+        <v>0.006920343359360892</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>12.470671</v>
       </c>
       <c r="I9">
-        <v>0.2058490876580898</v>
+        <v>0.1672225590108659</v>
       </c>
       <c r="J9">
-        <v>0.2058490876580898</v>
+        <v>0.1672225590108659</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>202.900665</v>
       </c>
       <c r="O9">
-        <v>0.3351369029761694</v>
+        <v>0.3297460182766552</v>
       </c>
       <c r="P9">
-        <v>0.3351369029761695</v>
+        <v>0.3297460182766552</v>
       </c>
       <c r="Q9">
         <v>281.1452709884683</v>
@@ -1004,10 +1004,10 @@
         <v>2530.307438896215</v>
       </c>
       <c r="S9">
-        <v>0.06898762571820224</v>
+        <v>0.05514097299986605</v>
       </c>
       <c r="T9">
-        <v>0.06898762571820227</v>
+        <v>0.05514097299986605</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>12.470671</v>
       </c>
       <c r="I10">
-        <v>0.2058490876580898</v>
+        <v>0.1672225590108659</v>
       </c>
       <c r="J10">
-        <v>0.2058490876580898</v>
+        <v>0.1672225590108659</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>386.958824</v>
       </c>
       <c r="O10">
-        <v>0.6391510932438819</v>
+        <v>0.6288699519590879</v>
       </c>
       <c r="P10">
-        <v>0.6391510932438819</v>
+        <v>0.6288699519590879</v>
       </c>
       <c r="Q10">
         <v>536.1817982945449</v>
@@ -1066,10 +1066,10 @@
         <v>4825.636184650903</v>
       </c>
       <c r="S10">
-        <v>0.1315686694199238</v>
+        <v>0.105161242651639</v>
       </c>
       <c r="T10">
-        <v>0.1315686694199238</v>
+        <v>0.105161242651639</v>
       </c>
     </row>
   </sheetData>
